--- a/AI_Grade_Calc.xlsx
+++ b/AI_Grade_Calc.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0131/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E55C4C-3473-F042-99D5-BFC8FC9A7F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056C3D79-FE5A-3F49-9876-01EF3D4CABA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-23500" windowWidth="38400" windowHeight="23500" xr2:uid="{3B884CFC-9029-F345-AD06-14718079DB1A}"/>
+    <workbookView xWindow="1040" yWindow="880" windowWidth="34960" windowHeight="22500" xr2:uid="{3B884CFC-9029-F345-AD06-14718079DB1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Updated" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
   <si>
     <t xml:space="preserve">HW </t>
   </si>
@@ -83,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,8 +115,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +156,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -136,12 +178,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,8 +205,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -476,11 +525,704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43733844-FC33-604A-8AF2-CCDA2F17081A}">
+  <dimension ref="B2:AB34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>(X4/Y4)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="W5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="2">
+        <f t="shared" ref="Z5:Z9" si="0">(X5/Y5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <f>(C7/D7)</f>
+        <v>0.95</v>
+      </c>
+      <c r="W7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="10">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>80</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E12" si="1">(C8/D8)</f>
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X9" s="4">
+        <f>SUM(X4:X8)</f>
+        <v>265.5</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>SUM(Y4:Y8)</f>
+        <v>280</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.94821428571428568</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AB9" s="7">
+        <f>Z9*AA9</f>
+        <v>0.66374999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" ref="Z11:Z12" si="2">(X11/Y11)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C12" s="4">
+        <f>SUM(C7:C11)</f>
+        <v>277.5</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM(D7:D11)</f>
+        <v>280</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0.9910714285714286</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="7">
+        <f>E12*F12</f>
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="W12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="X13" s="4">
+        <f>SUM(X11:X12)</f>
+        <v>79</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>SUM(Y11:Y12)</f>
+        <v>100</v>
+      </c>
+      <c r="Z13" s="5">
+        <f>X13/Y13</f>
+        <v>0.79</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AB13" s="7">
+        <f>Z13*AA13</f>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14:E15" si="3">(C14/D14)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="9">
+        <f>AB9+AB13</f>
+        <v>0.90074999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C16" s="4">
+        <f>SUM(C14:C15)</f>
+        <v>79</v>
+      </c>
+      <c r="D16" s="4">
+        <f>SUM(D14:D15)</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="5">
+        <f>C16/D16</f>
+        <v>0.79</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="7">
+        <f>E16*F16</f>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11">
+        <f>G12+G16</f>
+        <v>0.93074999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="W21" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>(X21/Y21)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" ref="Z22:Z26" si="4">(X22/Y22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2">
+        <f>(C23/D23)</f>
+        <v>0.95</v>
+      </c>
+      <c r="W23" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="1">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ref="E24:E28" si="5">(C24/D24)</f>
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="10">
+        <v>80</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>80</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="1">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1">
+        <v>80</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="X26" s="4">
+        <f>SUM(X21:X25)</f>
+        <v>277.5</v>
+      </c>
+      <c r="Y26" s="4">
+        <f>SUM(Y21:Y25)</f>
+        <v>280</v>
+      </c>
+      <c r="Z26" s="5">
+        <f t="shared" si="4"/>
+        <v>0.9910714285714286</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AB26" s="7">
+        <f>Z26*AA26</f>
+        <v>0.69374999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <f>SUM(C23:C27)</f>
+        <v>257.5</v>
+      </c>
+      <c r="D28" s="4">
+        <f>SUM(D23:D27)</f>
+        <v>280</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="5"/>
+        <v>0.9196428571428571</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="G28" s="7">
+        <f>E28*F28</f>
+        <v>0.64374999999999993</v>
+      </c>
+      <c r="W28" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" ref="Z28:Z29" si="6">(X28/Y28)</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="W29" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>50</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>50</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:E31" si="7">(C30/D30)</f>
+        <v>0.81</v>
+      </c>
+      <c r="X30" s="4">
+        <f>SUM(X28:X29)</f>
+        <v>79</v>
+      </c>
+      <c r="Y30" s="4">
+        <f>SUM(Y28:Y29)</f>
+        <v>100</v>
+      </c>
+      <c r="Z30" s="5">
+        <f>X30/Y30</f>
+        <v>0.79</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="AB30" s="7">
+        <f>Z30*AA30</f>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="7"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C32" s="4">
+        <f>SUM(C30:C31)</f>
+        <v>79</v>
+      </c>
+      <c r="D32" s="4">
+        <f>SUM(D30:D31)</f>
+        <v>100</v>
+      </c>
+      <c r="E32" s="5">
+        <f>C32/D32</f>
+        <v>0.79</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="7">
+        <f>E32*F32</f>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB32" s="9">
+        <f>AB26+AB30</f>
+        <v>0.93074999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="12">
+        <f>G28+G32</f>
+        <v>0.88074999999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0FC5A1-5CF0-DB43-8CB3-4006569AAA7B}">
   <dimension ref="B2:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="E3" zoomScale="119" workbookViewId="0">
+      <selection activeCell="O5" sqref="J5:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,7 +1458,7 @@
       <c r="J10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="1">
         <v>25</v>
       </c>
       <c r="L10" s="1">
@@ -729,7 +1471,7 @@
       <c r="R10" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="1">
         <v>25</v>
       </c>
       <c r="T10" s="1">
@@ -880,14 +1622,14 @@
         <v>8</v>
       </c>
       <c r="S14" s="10">
-        <v>36</v>
+        <v>38.5</v>
       </c>
       <c r="T14" s="1">
         <v>50</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="4"/>
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
@@ -931,7 +1673,7 @@
       </c>
       <c r="S15" s="4">
         <f>SUM(S13:S14)</f>
-        <v>76</v>
+        <v>78.5</v>
       </c>
       <c r="T15" s="4">
         <f>SUM(T13:T14)</f>
@@ -939,14 +1681,14 @@
       </c>
       <c r="U15" s="5">
         <f>S15/T15</f>
-        <v>0.76</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="V15" s="8">
         <v>0.3</v>
       </c>
       <c r="W15" s="7">
         <f>U15*V15</f>
-        <v>0.22799999999999998</v>
+        <v>0.23549999999999999</v>
       </c>
     </row>
     <row r="17" spans="6:23" x14ac:dyDescent="0.2">
@@ -969,7 +1711,7 @@
       </c>
       <c r="W17" s="9">
         <f>W11+W15</f>
-        <v>0.90174999999999994</v>
+        <v>0.90924999999999989</v>
       </c>
     </row>
     <row r="22" spans="6:23" x14ac:dyDescent="0.2">
@@ -1114,7 +1856,7 @@
       <c r="J27" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="1">
         <v>25</v>
       </c>
       <c r="L27" s="1">
@@ -1127,7 +1869,7 @@
       <c r="R27" t="s">
         <v>6</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="1">
         <v>25</v>
       </c>
       <c r="T27" s="1">
@@ -1218,34 +1960,34 @@
       <c r="J31" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="10">
-        <v>29</v>
+      <c r="K31" s="1">
+        <v>38.5</v>
       </c>
       <c r="L31" s="1">
         <v>50</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="7"/>
-        <v>0.57999999999999996</v>
+        <v>0.77</v>
       </c>
       <c r="R31" t="s">
         <v>8</v>
       </c>
       <c r="S31" s="10">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="T31" s="1">
         <v>50</v>
       </c>
       <c r="U31" s="2">
         <f t="shared" si="8"/>
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="32" spans="6:23" x14ac:dyDescent="0.2">
       <c r="K32" s="4">
         <f>SUM(K30:K31)</f>
-        <v>69</v>
+        <v>78.5</v>
       </c>
       <c r="L32" s="4">
         <f>SUM(L30:L31)</f>
@@ -1253,18 +1995,18 @@
       </c>
       <c r="M32" s="5">
         <f>K32/L32</f>
-        <v>0.69</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="N32" s="8">
         <v>0.3</v>
       </c>
       <c r="O32" s="7">
         <f>M32*N32</f>
-        <v>0.20699999999999999</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="S32" s="4">
         <f>SUM(S30:S31)</f>
-        <v>59</v>
+        <v>78.5</v>
       </c>
       <c r="T32" s="4">
         <f>SUM(T30:T31)</f>
@@ -1272,14 +2014,14 @@
       </c>
       <c r="U32" s="5">
         <f>S32/T32</f>
-        <v>0.59</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="V32" s="8">
         <v>0.3</v>
       </c>
       <c r="W32" s="7">
         <f>U32*V32</f>
-        <v>0.17699999999999999</v>
+        <v>0.23549999999999999</v>
       </c>
     </row>
     <row r="34" spans="10:23" x14ac:dyDescent="0.2">
@@ -1288,14 +2030,14 @@
       </c>
       <c r="O34" s="9">
         <f>O28+O32</f>
-        <v>0.90074999999999994</v>
+        <v>0.92924999999999991</v>
       </c>
       <c r="V34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="W34" s="9">
         <f>W28+W32</f>
-        <v>0.87074999999999991</v>
+        <v>0.92924999999999991</v>
       </c>
     </row>
     <row r="38" spans="10:23" x14ac:dyDescent="0.2">
@@ -1362,21 +2104,21 @@
         <v>5</v>
       </c>
       <c r="K42" s="10">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L42" s="1">
         <v>80</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="9"/>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="43" spans="10:23" x14ac:dyDescent="0.2">
       <c r="J43" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="1">
         <v>25</v>
       </c>
       <c r="L43" s="1">
@@ -1390,7 +2132,7 @@
     <row r="44" spans="10:23" x14ac:dyDescent="0.2">
       <c r="K44" s="4">
         <f>SUM(K39:K43)</f>
-        <v>269.5</v>
+        <v>257.5</v>
       </c>
       <c r="L44" s="4">
         <f>SUM(L39:L43)</f>
@@ -1398,14 +2140,14 @@
       </c>
       <c r="M44" s="5">
         <f t="shared" si="9"/>
-        <v>0.96250000000000002</v>
+        <v>0.9196428571428571</v>
       </c>
       <c r="N44" s="8">
         <v>0.7</v>
       </c>
       <c r="O44" s="7">
         <f>M44*N44</f>
-        <v>0.67374999999999996</v>
+        <v>0.64374999999999993</v>
       </c>
     </row>
     <row r="45" spans="10:23" x14ac:dyDescent="0.2">
@@ -1432,21 +2174,21 @@
       <c r="J47" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="10">
-        <v>40</v>
+      <c r="K47" s="1">
+        <v>38.5</v>
       </c>
       <c r="L47" s="1">
         <v>50</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="10"/>
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="48" spans="10:23" x14ac:dyDescent="0.2">
       <c r="K48" s="4">
         <f>SUM(K46:K47)</f>
-        <v>80</v>
+        <v>78.5</v>
       </c>
       <c r="L48" s="4">
         <f>SUM(L46:L47)</f>
@@ -1454,14 +2196,14 @@
       </c>
       <c r="M48" s="5">
         <f>K48/L48</f>
-        <v>0.8</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="N48" s="8">
         <v>0.3</v>
       </c>
       <c r="O48" s="7">
         <f>M48*N48</f>
-        <v>0.24</v>
+        <v>0.23549999999999999</v>
       </c>
     </row>
     <row r="50" spans="14:15" x14ac:dyDescent="0.2">
@@ -1470,7 +2212,7 @@
       </c>
       <c r="O50" s="9">
         <f>O44+O48</f>
-        <v>0.91374999999999995</v>
+        <v>0.87924999999999986</v>
       </c>
     </row>
   </sheetData>
